--- a/doc/1.전류센서 EOL검사기 검사창 변경_20171212.xlsx
+++ b/doc/1.전류센서 EOL검사기 검사창 변경_20171212.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DTA\Docs\CHECKOUT\USE_DTA71441_15_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\GitHub\VBScriptor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="1.전류센서 EOL검사기 화면창 개선내역" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +120,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -161,7 +164,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvPr id="13" name="직사각형 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -221,7 +230,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="직선 화살표 연결선 14"/>
+        <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -272,20 +287,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="그룹 17"/>
+        <xdr:cNvPr id="18" name="그룹 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="409574" y="1295399"/>
-          <a:ext cx="3629026" cy="1219201"/>
+          <a:off x="409574" y="1312984"/>
+          <a:ext cx="3643680" cy="1236785"/>
           <a:chOff x="504824" y="1019174"/>
           <a:chExt cx="3629026" cy="1219201"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="직사각형 2"/>
+          <xdr:cNvPr id="3" name="직사각형 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -344,7 +371,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="직사각형 3"/>
+          <xdr:cNvPr id="4" name="직사각형 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -438,7 +471,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="직사각형 4"/>
+          <xdr:cNvPr id="5" name="직사각형 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -497,7 +536,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="직사각형 5"/>
+          <xdr:cNvPr id="6" name="직사각형 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -591,7 +636,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="직사각형 6"/>
+          <xdr:cNvPr id="7" name="직사각형 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -650,7 +701,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="직사각형 7"/>
+          <xdr:cNvPr id="8" name="직사각형 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -776,7 +833,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="직사각형 8"/>
+          <xdr:cNvPr id="9" name="직사각형 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -835,7 +898,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="직사각형 9"/>
+          <xdr:cNvPr id="10" name="직사각형 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -929,7 +998,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="직사각형 10"/>
+          <xdr:cNvPr id="11" name="직사각형 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -988,7 +1063,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="직사각형 11"/>
+          <xdr:cNvPr id="12" name="직사각형 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1074,7 +1155,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="직사각형 15"/>
+          <xdr:cNvPr id="16" name="직사각형 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1135,7 +1222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1202,7 +1295,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1269,7 +1368,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1911,7 +2016,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1971,7 +2082,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="직선 화살표 연결선 22"/>
+        <xdr:cNvPr id="23" name="직선 화살표 연결선 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2022,7 +2139,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="직사각형 26"/>
+        <xdr:cNvPr id="27" name="직사각형 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2079,7 +2202,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvPr id="28" name="직사각형 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2136,7 +2265,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvPr id="29" name="직사각형 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2193,7 +2328,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvPr id="30" name="직사각형 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2250,7 +2391,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="직사각형 31"/>
+        <xdr:cNvPr id="32" name="직사각형 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2310,7 +2457,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2377,7 +2530,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="그림 33"/>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2415,7 +2574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="직사각형 34"/>
+        <xdr:cNvPr id="35" name="직사각형 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2475,7 +2640,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="직사각형 35"/>
+        <xdr:cNvPr id="36" name="직사각형 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2535,7 +2706,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36"/>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2598,7 +2775,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvPr id="38" name="직사각형 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2662,7 +2845,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvPr id="39" name="TextBox 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2725,7 +2914,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39"/>
+        <xdr:cNvPr id="40" name="TextBox 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2798,7 +2993,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2869,7 +3070,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="TextBox 41"/>
+        <xdr:cNvPr id="42" name="TextBox 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2929,7 +3136,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="직선 화살표 연결선 42"/>
+        <xdr:cNvPr id="43" name="직선 화살표 연결선 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2980,7 +3193,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvPr id="45" name="TextBox 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3047,20 +3266,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="58" name="그룹 57"/>
+        <xdr:cNvPr id="58" name="그룹 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11906250" y="4133850"/>
-          <a:ext cx="2028824" cy="276225"/>
+          <a:off x="11956073" y="4189535"/>
+          <a:ext cx="2037616" cy="282086"/>
           <a:chOff x="12020550" y="4533900"/>
           <a:chExt cx="2028824" cy="276225"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="TextBox 50"/>
+          <xdr:cNvPr id="51" name="TextBox 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3108,7 +3339,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="직사각형 51"/>
+          <xdr:cNvPr id="52" name="직사각형 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3150,7 +3387,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="직사각형 52"/>
+          <xdr:cNvPr id="53" name="직사각형 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3192,7 +3435,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="직사각형 53"/>
+          <xdr:cNvPr id="54" name="직사각형 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3234,7 +3483,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="직사각형 54"/>
+          <xdr:cNvPr id="55" name="직사각형 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3292,20 +3547,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="그룹 56"/>
+        <xdr:cNvPr id="57" name="그룹 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11906250" y="3800475"/>
-          <a:ext cx="2066924" cy="276225"/>
+          <a:off x="11956073" y="3853229"/>
+          <a:ext cx="2075716" cy="279156"/>
           <a:chOff x="12020550" y="4114800"/>
           <a:chExt cx="2066924" cy="276225"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="직사각형 45"/>
+          <xdr:cNvPr id="46" name="직사각형 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3347,7 +3614,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="직사각형 46"/>
+          <xdr:cNvPr id="47" name="직사각형 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3389,7 +3662,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="직사각형 47"/>
+          <xdr:cNvPr id="48" name="직사각형 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3431,7 +3710,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="직사각형 48"/>
+          <xdr:cNvPr id="49" name="직사각형 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3473,7 +3758,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="TextBox 55"/>
+          <xdr:cNvPr id="56" name="TextBox 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3537,7 +3828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58"/>
+        <xdr:cNvPr id="59" name="TextBox 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3628,7 +3925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="TextBox 59"/>
+        <xdr:cNvPr id="60" name="TextBox 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3688,7 +3991,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="직선 화살표 연결선 60"/>
+        <xdr:cNvPr id="61" name="직선 화살표 연결선 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3739,7 +4048,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="TextBox 64"/>
+        <xdr:cNvPr id="65" name="TextBox 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3806,7 +4121,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="TextBox 65"/>
+        <xdr:cNvPr id="66" name="TextBox 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3869,7 +4190,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="직사각형 66"/>
+        <xdr:cNvPr id="67" name="직사각형 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3945,7 +4272,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="TextBox 67"/>
+        <xdr:cNvPr id="68" name="TextBox 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4032,7 +4365,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="직사각형 68"/>
+        <xdr:cNvPr id="69" name="직사각형 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4108,7 +4447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="TextBox 69"/>
+        <xdr:cNvPr id="70" name="TextBox 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4168,7 +4513,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="직선 화살표 연결선 70"/>
+        <xdr:cNvPr id="71" name="직선 화살표 연결선 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4219,7 +4570,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="TextBox 74"/>
+        <xdr:cNvPr id="75" name="TextBox 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4279,7 +4636,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="그림 78"/>
+        <xdr:cNvPr id="79" name="그림 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4317,7 +4680,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="그림 79"/>
+        <xdr:cNvPr id="80" name="그림 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4355,7 +4724,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="TextBox 80"/>
+        <xdr:cNvPr id="81" name="TextBox 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4435,7 +4810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="TextBox 81"/>
+        <xdr:cNvPr id="82" name="TextBox 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4498,7 +4879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="직사각형 82"/>
+        <xdr:cNvPr id="83" name="직사각형 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4558,7 +4945,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="직선 화살표 연결선 83"/>
+        <xdr:cNvPr id="84" name="직선 화살표 연결선 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4862,7 +5255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K31:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -4888,7 +5281,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>